--- a/biology/Botanique/Anemone_tuberosa/Anemone_tuberosa.xlsx
+++ b/biology/Botanique/Anemone_tuberosa/Anemone_tuberosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anemone tuberosa est une espèce de plante de la famille des Ranunculaceae, originaire des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 10 à 40 cm de hauteur a plusieurs tiges réunies en groupe. Les feuilles sont principalement situées à la base mais il y a un groupe de trois feuilles disposées en hélice à peu près au milieu de chaque tige. Elles mesurent entre 3 et 5 cm de diamètre et sont divisées plusieurs fois en folioles courts et étroits[1].
-Appareil reproducteur
-La floraison a lieu en mars-avril. L'inflorescence est une fleur isolée qui apparait à l'extrémité de chaque tige florale. La fleur a une couleur qui peut aller du blanc au rose-violacé ; elle mesure entre 2,5 et 4 cm de diamètre. Le calice est constitué de 5 à 8 sépales qui ressemblent à des pétales et qui sont plus sombres et velus côté externe. Il n'y a pas de corolle, donc pas de pétales. Les étamines et les pistils sont nombreux[1].
-Les fruits sont des akènes velus.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 10 à 40 cm de hauteur a plusieurs tiges réunies en groupe. Les feuilles sont principalement situées à la base mais il y a un groupe de trois feuilles disposées en hélice à peu près au milieu de chaque tige. Elles mesurent entre 3 et 5 cm de diamètre et sont divisées plusieurs fois en folioles courts et étroits.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu en mars-avril. L'inflorescence est une fleur isolée qui apparait à l'extrémité de chaque tige florale. La fleur a une couleur qui peut aller du blanc au rose-violacé ; elle mesure entre 2,5 et 4 cm de diamètre. Le calice est constitué de 5 à 8 sépales qui ressemblent à des pétales et qui sont plus sombres et velus côté externe. Il n'y a pas de corolle, donc pas de pétales. Les étamines et les pistils sont nombreux.
+Les fruits sont des akènes velus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anemone_tuberosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anemone_tuberosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les pentes rocailleuses des zones désertiques. Son aire de répartition est limitée au sud-ouest des États-Unis, dans les États de Californie, Utah et Nouveau-Mexique.
 </t>
